--- a/result.xlsx
+++ b/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Energy</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>58% Turbulent</t>
+  </si>
+  <si>
+    <t>56% Extraverted</t>
+  </si>
+  <si>
+    <t>53% Intuitive</t>
+  </si>
+  <si>
+    <t>56% Feeling</t>
+  </si>
+  <si>
+    <t>56% Judging</t>
+  </si>
+  <si>
+    <t>56% Turbulent</t>
   </si>
 </sst>
 </file>
@@ -1050,13 +1065,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="17.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1090,6 +1112,40 @@
       </c>
       <c r="E2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
